--- a/biology/Zoologie/Dipodomys_merriami/Dipodomys_merriami.xlsx
+++ b/biology/Zoologie/Dipodomys_merriami/Dipodomys_merriami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodomys merriami, est une espèce de Rongeurs de la famille des Heteromyidae. C'est un petit mammifère qui fait partie des rats-kangourous d'Amérique. Il est aussi appelé Rat-kangourou de Merriam[réf. nécessaire] et on le rencontre au sud-ouest de l'Amérique du Nord.
 L'espèce a été décrite pour la première fois en 1890 par un zoologiste américain, Edgar Alexander Mearns (1856-1916) et nommée ainsi en hommage à un autre zoologiste américain, son contemporain Clinton Hart Merriam (1855-1942).
@@ -512,9 +524,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec ses 22 à 26 cm de longueur, il s'agit du plus petit rat kangourou des États-Unis[1]. Il est globalement de couleur fauve léger sur le dessus et blanc dessous. Sa longue queue présente sur chaque côté une bande blanche plus large que les bandes sombres du dessus et du dessous ; l'extrémité de la queue est garnie d'une touffe de poils sombres. Il présente de chaque côté du museau une ligne sombre. Autre particularité, ce rongeur ne possède que 4 doigts.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec ses 22 à 26 cm de longueur, il s'agit du plus petit rat kangourou des États-Unis. Il est globalement de couleur fauve léger sur le dessus et blanc dessous. Sa longue queue présente sur chaque côté une bande blanche plus large que les bandes sombres du dessus et du dessous ; l'extrémité de la queue est garnie d'une touffe de poils sombres. Il présente de chaque côté du museau une ligne sombre. Autre particularité, ce rongeur ne possède que 4 doigts.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Ce rat kangourou se nourrit essentiellement de graines, particulièrement de graines de mesquite (buisson appartenant au genre Prosopis), de Larrea tridentata, de Claytonia perfoliata, de Bouteloua et d'Ocotillo.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rat kangourou se nourrit essentiellement de graines, particulièrement de graines de mesquite (buisson appartenant au genre Prosopis), de Larrea tridentata, de Claytonia perfoliata, de Bouteloua et d'Ocotillo.
 </t>
         </is>
       </c>
@@ -575,7 +594,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les zones désertiques broussailleuses à Atriplex confertifolia, Larrea tridentata ou Artemisia tridentata.
 Son aire de répartition, aux États-Unis, couvre une partie des États du Nevada, de la Californie, de l'Utah, de l'Arizona, du Nouveau-Mexique et du Texas.
@@ -607,9 +628,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[2] et ITIS      (2 juin 2016)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016) et ITIS      (2 juin 2016) :
 sous-espèce Dipodomys merriami ambiguus
 sous-espèce Dipodomys merriami annulus
 sous-espèce Dipodomys merriami arenivagus
@@ -617,7 +640,7 @@
 sous-espèce Dipodomys merriami brunensis
 sous-espèce Dipodomys merriami collinus
 sous-espèce Dipodomys merriami frenatus
-sous-espèce Dipodomys merriami insularis - ou une espèce à part entière : Dipodomys insularis Merriam, 1907 selon NCBI[4]
+sous-espèce Dipodomys merriami insularis - ou une espèce à part entière : Dipodomys insularis Merriam, 1907 selon NCBI
 sous-espèce Dipodomys merriami margaritae
 sous-espèce Dipodomys merriami mayensis
 sous-espèce Dipodomys merriami melanurus
@@ -629,7 +652,7 @@
 sous-espèce Dipodomys merriami quintinensis
 sous-espèce Dipodomys merriami trinidadensis
 sous-espèce Dipodomys merriami vulcani
-Selon NCBI  (2 juin 2016)[4] :
+Selon NCBI  (2 juin 2016) :
 sous-espèce Dipodomys merriami annulus
 sous-espèce Dipodomys merriami arenivagus
 sous-espèce Dipodomys merriami brunensis
@@ -637,7 +660,7 @@
 sous-espèce Dipodomys merriami melanurus
 sous-espèce Dipodomys merriami merriami
 sous-espèce Dipodomys merriami platycephalus
-Selon Paleobiology Database                   (2 juin 2016)[5] :
+Selon Paleobiology Database                   (2 juin 2016) :
 Dipodomys merriami insularis</t>
         </is>
       </c>
